--- a/data/trans_dic/P55$familiarvive-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04786525354772707</v>
+        <v>0.04902243975747366</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0431147910414406</v>
+        <v>0.02478052076857259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06336231945611993</v>
+        <v>0.06356887364804327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08106727324495924</v>
+        <v>0.08244009355306918</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08323842607334135</v>
+        <v>0.08344543604612574</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1801118833137208</v>
+        <v>0.1914935754940638</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1228327184475066</v>
+        <v>0.1192047524943587</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1532282139257221</v>
+        <v>0.1532257173496422</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09119521649843722</v>
+        <v>0.08404240021295116</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1515804787746531</v>
+        <v>0.1416527185457859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1178182909705112</v>
+        <v>0.1201976385065586</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1419895610381885</v>
+        <v>0.1417778109066109</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2797395059053247</v>
+        <v>0.2703708342687664</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2264302833200405</v>
+        <v>0.2282186374933608</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3299334050478482</v>
+        <v>0.3207260175225349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2565848063818084</v>
+        <v>0.2529505966861593</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2559761279444046</v>
+        <v>0.2529703346195596</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3982478366964591</v>
+        <v>0.4160178075254631</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3213954163758</v>
+        <v>0.3145665890512845</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.286535696854909</v>
+        <v>0.2998244970590421</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2245318037142524</v>
+        <v>0.2258513160879331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2999346428012272</v>
+        <v>0.3026487256669599</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2754845762873449</v>
+        <v>0.2763423547007393</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2494631051507225</v>
+        <v>0.2486552928202183</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0962230749059611</v>
+        <v>0.09831324023337655</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1411663216295026</v>
+        <v>0.1347382555325357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09017188954289193</v>
+        <v>0.09074443304356822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05325746932832797</v>
+        <v>0.05258178544197082</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2903759880503141</v>
+        <v>0.2886304504072035</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2308333602974469</v>
+        <v>0.2333617866387884</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2184463913753927</v>
+        <v>0.2259588367469858</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1604399185864084</v>
+        <v>0.1642710326093147</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2382995265713584</v>
+        <v>0.2417066545845214</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2158243147225153</v>
+        <v>0.2185252415092999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1980591188041503</v>
+        <v>0.192234954201341</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1391796824920379</v>
+        <v>0.1381047719064916</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2566730668525348</v>
+        <v>0.2574930816733271</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3222981467966287</v>
+        <v>0.3167696419221745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2277962557201561</v>
+        <v>0.2359052181155562</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1384187533176053</v>
+        <v>0.1382822219296982</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4448549922475958</v>
+        <v>0.4509261664013587</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3635672291290805</v>
+        <v>0.3668960077979519</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3748638512483711</v>
+        <v>0.3748831485937985</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2306105844601659</v>
+        <v>0.2359132482330652</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3646482524092129</v>
+        <v>0.3610713360639405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3194323431991</v>
+        <v>0.3168221669743395</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3083897689393735</v>
+        <v>0.3019593766304172</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1938633145370579</v>
+        <v>0.1954305437807937</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2639909301953108</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2013146325584255</v>
+        <v>0.2013146325584256</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.250624434792432</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07524561766975402</v>
+        <v>0.07408302975443647</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2310554300172905</v>
+        <v>0.2366337085839759</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1689077332369104</v>
+        <v>0.1707637678380646</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2125739849014827</v>
+        <v>0.2112936748866892</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1449569936755971</v>
+        <v>0.1480849779815934</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1527519518303978</v>
+        <v>0.1563488933015401</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3471124169100049</v>
+        <v>0.3511278375384752</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2330934075380414</v>
+        <v>0.2347275697385706</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3020532441493636</v>
+        <v>0.2973315645654429</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1987175985408176</v>
+        <v>0.1991915074670181</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2000</v>
+        <v>2048</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1960</v>
+        <v>1126</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4464</v>
+        <v>4539</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5632</v>
+        <v>5646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12557</v>
+        <v>13350</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10089</v>
+        <v>9791</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12338</v>
+        <v>12337</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9981</v>
+        <v>9198</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17458</v>
+        <v>16315</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13370</v>
+        <v>13640</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19251</v>
+        <v>19222</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11689</v>
+        <v>11297</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10293</v>
+        <v>10374</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10339</v>
+        <v>10051</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14128</v>
+        <v>13928</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17320</v>
+        <v>17116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27765</v>
+        <v>29004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26399</v>
+        <v>25838</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23071</v>
+        <v>24141</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24574</v>
+        <v>24718</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34544</v>
+        <v>34857</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>31261</v>
+        <v>31359</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33822</v>
+        <v>33713</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8159</v>
+        <v>8336</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14217</v>
+        <v>13570</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8126</v>
+        <v>8178</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6074</v>
+        <v>5997</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47407</v>
+        <v>47122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>48432</v>
+        <v>48962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>40461</v>
+        <v>41853</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44397</v>
+        <v>45458</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>59112</v>
+        <v>59957</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>67019</v>
+        <v>67858</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>54534</v>
+        <v>52931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>54389</v>
+        <v>53969</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>21764</v>
+        <v>21834</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32459</v>
+        <v>31903</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20529</v>
+        <v>21260</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15788</v>
+        <v>15772</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>72628</v>
+        <v>73619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>76281</v>
+        <v>76980</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>69433</v>
+        <v>69437</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>63815</v>
+        <v>65283</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>90453</v>
+        <v>89566</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>99192</v>
+        <v>98381</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84913</v>
+        <v>83142</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75758</v>
+        <v>76371</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12726</v>
+        <v>12529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64587</v>
+        <v>66146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>60341</v>
+        <v>61004</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>90492</v>
+        <v>89947</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>76300</v>
+        <v>77946</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25834</v>
+        <v>26442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>97028</v>
+        <v>98151</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>83271</v>
+        <v>83854</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>128583</v>
+        <v>126573</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>104597</v>
+        <v>104847</v>
       </c>
     </row>
     <row r="16">
